--- a/Refood.Core/Database/Re-Food_ModeloDados_2018_09_27.xlsx
+++ b/Refood.Core/Database/Re-Food_ModeloDados_2018_09_27.xlsx
@@ -2044,8 +2044,8 @@
   <dimension ref="A1:O595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N117" sqref="N117:N134"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
